--- a/spreadsheet/review_checklist_empty.xlsx
+++ b/spreadsheet/review_checklist_empty.xlsx
@@ -1422,7 +1422,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">
@@ -11016,7 +11016,13 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
+  <dataValidations count="8">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
